--- a/sellerflash-otomasyon-linkler/Home Décor Products.xlsx
+++ b/sellerflash-otomasyon-linkler/Home Décor Products.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nihat/Documents/sellerflash-otomasyon-linkler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nihat/Documents/AmazonIcinGelistirdiklerim/amazon-seller-flash-otomasyonu-url/sellerflash-otomasyon-linkler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D655D4F9-CABB-DF4E-9D1F-E59B468904E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4ABF49-EFF6-964D-8651-146825069B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3500" yWindow="740" windowWidth="25900" windowHeight="16900" xr2:uid="{C624938F-7E92-044C-9257-4B678359122C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -833,7 +833,7 @@
   <dimension ref="A1:B140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
